--- a/backend/web/assets/sample/testmsme.xlsx
+++ b/backend/web/assets/sample/testmsme.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -81,9 +81,6 @@
     <t>Test Client 201</t>
   </si>
   <si>
-    <t>APR'20</t>
-  </si>
-  <si>
     <t>MSME</t>
   </si>
   <si>
@@ -91,17 +88,20 @@
   </si>
   <si>
     <t>Test Client 202</t>
+  </si>
+  <si>
+    <t>APR`20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -109,7 +109,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -234,7 +234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -269,7 +269,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -446,29 +446,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="25.625" customWidth="1"/>
-    <col min="8" max="8" width="29.75" customWidth="1"/>
-    <col min="10" max="10" width="16.125" customWidth="1"/>
-    <col min="14" max="14" width="38.25" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="14" max="14" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -562,13 +562,13 @@
         <v>43975</v>
       </c>
       <c r="O2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="9" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -585,10 +585,10 @@
         <v>583456790</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="H3" s="6">
         <v>9853657019</v>
@@ -612,10 +612,10 @@
         <v>43975</v>
       </c>
       <c r="O3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
